--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2253.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2253.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.197234960182435</v>
+        <v>1.052176713943481</v>
       </c>
       <c r="B1">
-        <v>2.329636852254926</v>
+        <v>2.659528255462646</v>
       </c>
       <c r="C1">
-        <v>6.884977728311922</v>
+        <v>5.747958660125732</v>
       </c>
       <c r="D1">
-        <v>2.410708732431742</v>
+        <v>2.116188287734985</v>
       </c>
       <c r="E1">
-        <v>1.182068893623524</v>
+        <v>1.199236750602722</v>
       </c>
     </row>
   </sheetData>
